--- a/Outputs/summaryStatistics.xlsx
+++ b/Outputs/summaryStatistics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="89">
   <si>
     <t>N</t>
   </si>
@@ -76,124 +76,121 @@
     <t>251</t>
   </si>
   <si>
-    <t>86.436</t>
-  </si>
-  <si>
-    <t>92.156</t>
-  </si>
-  <si>
-    <t>87.638</t>
-  </si>
-  <si>
-    <t>95.324</t>
-  </si>
-  <si>
-    <t>101.414</t>
-  </si>
-  <si>
-    <t>87.958</t>
-  </si>
-  <si>
-    <t>99.532</t>
-  </si>
-  <si>
-    <t>85.497</t>
-  </si>
-  <si>
-    <t>91.964</t>
-  </si>
-  <si>
-    <t>93.926</t>
-  </si>
-  <si>
-    <t>85.562</t>
-  </si>
-  <si>
-    <t>98.990</t>
-  </si>
-  <si>
-    <t>105.679</t>
-  </si>
-  <si>
-    <t>89.740</t>
-  </si>
-  <si>
-    <t>100.077</t>
-  </si>
-  <si>
-    <t>88.550</t>
-  </si>
-  <si>
-    <t>60.748</t>
-  </si>
-  <si>
-    <t>63.490</t>
-  </si>
-  <si>
-    <t>69.135</t>
-  </si>
-  <si>
-    <t>76.395</t>
-  </si>
-  <si>
-    <t>65.751</t>
-  </si>
-  <si>
-    <t>47.244</t>
-  </si>
-  <si>
-    <t>75.248</t>
-  </si>
-  <si>
-    <t>48.422</t>
-  </si>
-  <si>
-    <t>112.670</t>
-  </si>
-  <si>
-    <t>121.250</t>
-  </si>
-  <si>
-    <t>117.063</t>
-  </si>
-  <si>
-    <t>113.535</t>
-  </si>
-  <si>
-    <t>139.276</t>
-  </si>
-  <si>
-    <t>112.963</t>
-  </si>
-  <si>
-    <t>124.610</t>
-  </si>
-  <si>
-    <t>121.900</t>
-  </si>
-  <si>
-    <t>12.978</t>
-  </si>
-  <si>
-    <t>15.739</t>
-  </si>
-  <si>
-    <t>11.577</t>
-  </si>
-  <si>
-    <t>9.665</t>
-  </si>
-  <si>
-    <t>19.526</t>
-  </si>
-  <si>
-    <t>15.747</t>
-  </si>
-  <si>
-    <t>11.582</t>
-  </si>
-  <si>
-    <t>11.897</t>
+    <t>127.893</t>
+  </si>
+  <si>
+    <t>76.005</t>
+  </si>
+  <si>
+    <t>112.964</t>
+  </si>
+  <si>
+    <t>124.777</t>
+  </si>
+  <si>
+    <t>151.165</t>
+  </si>
+  <si>
+    <t>186.178</t>
+  </si>
+  <si>
+    <t>90.412</t>
+  </si>
+  <si>
+    <t>115.008</t>
+  </si>
+  <si>
+    <t>136.073</t>
+  </si>
+  <si>
+    <t>77.465</t>
+  </si>
+  <si>
+    <t>110.288</t>
+  </si>
+  <si>
+    <t>129.577</t>
+  </si>
+  <si>
+    <t>157.522</t>
+  </si>
+  <si>
+    <t>189.951</t>
+  </si>
+  <si>
+    <t>90.907</t>
+  </si>
+  <si>
+    <t>119.114</t>
+  </si>
+  <si>
+    <t>89.885</t>
+  </si>
+  <si>
+    <t>52.363</t>
+  </si>
+  <si>
+    <t>89.113</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>98.007</t>
+  </si>
+  <si>
+    <t>68.353</t>
+  </si>
+  <si>
+    <t>65.136</t>
+  </si>
+  <si>
+    <t>166.711</t>
+  </si>
+  <si>
+    <t>100.000</t>
+  </si>
+  <si>
+    <t>150.891</t>
+  </si>
+  <si>
+    <t>148.616</t>
+  </si>
+  <si>
+    <t>207.601</t>
+  </si>
+  <si>
+    <t>239.107</t>
+  </si>
+  <si>
+    <t>113.193</t>
+  </si>
+  <si>
+    <t>163.976</t>
+  </si>
+  <si>
+    <t>19.203</t>
+  </si>
+  <si>
+    <t>12.980</t>
+  </si>
+  <si>
+    <t>14.922</t>
+  </si>
+  <si>
+    <t>12.651</t>
+  </si>
+  <si>
+    <t>29.105</t>
+  </si>
+  <si>
+    <t>33.331</t>
+  </si>
+  <si>
+    <t>10.521</t>
+  </si>
+  <si>
+    <t>16.003</t>
   </si>
   <si>
     <t>-0.587</t>
@@ -730,22 +727,22 @@
         <v>36</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -765,22 +762,22 @@
         <v>37</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -800,22 +797,22 @@
         <v>38</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -835,22 +832,22 @@
         <v>39</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -870,22 +867,22 @@
         <v>40</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -902,25 +899,25 @@
         <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -937,25 +934,25 @@
         <v>34</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -972,25 +969,25 @@
         <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/summaryStatistics.xlsx
+++ b/Outputs/summaryStatistics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
   <si>
     <t>N</t>
   </si>
@@ -61,208 +61,127 @@
     <t>Kyrgyz Republic</t>
   </si>
   <si>
-    <t>Moldova</t>
-  </si>
-  <si>
     <t>Russian Federation</t>
   </si>
   <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>251</t>
-  </si>
-  <si>
-    <t>127.893</t>
-  </si>
-  <si>
-    <t>76.005</t>
-  </si>
-  <si>
-    <t>112.964</t>
-  </si>
-  <si>
-    <t>124.777</t>
-  </si>
-  <si>
-    <t>151.165</t>
-  </si>
-  <si>
-    <t>186.178</t>
-  </si>
-  <si>
-    <t>90.412</t>
-  </si>
-  <si>
-    <t>115.008</t>
-  </si>
-  <si>
-    <t>136.073</t>
-  </si>
-  <si>
-    <t>77.465</t>
-  </si>
-  <si>
-    <t>110.288</t>
-  </si>
-  <si>
-    <t>129.577</t>
-  </si>
-  <si>
-    <t>157.522</t>
-  </si>
-  <si>
-    <t>189.951</t>
-  </si>
-  <si>
-    <t>90.907</t>
-  </si>
-  <si>
-    <t>119.114</t>
+    <t>252</t>
+  </si>
+  <si>
+    <t>127.879</t>
+  </si>
+  <si>
+    <t>75.912</t>
+  </si>
+  <si>
+    <t>112.865</t>
+  </si>
+  <si>
+    <t>124.187</t>
+  </si>
+  <si>
+    <t>186.077</t>
+  </si>
+  <si>
+    <t>135.958</t>
+  </si>
+  <si>
+    <t>77.463</t>
+  </si>
+  <si>
+    <t>110.283</t>
+  </si>
+  <si>
+    <t>128.753</t>
+  </si>
+  <si>
+    <t>189.731</t>
   </si>
   <si>
     <t>89.885</t>
   </si>
   <si>
-    <t>52.363</t>
-  </si>
-  <si>
-    <t>89.113</t>
+    <t>52.366</t>
+  </si>
+  <si>
+    <t>89.110</t>
+  </si>
+  <si>
+    <t>99.346</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>98.007</t>
-  </si>
-  <si>
-    <t>68.353</t>
-  </si>
-  <si>
-    <t>65.136</t>
-  </si>
-  <si>
-    <t>166.711</t>
-  </si>
-  <si>
-    <t>100.000</t>
-  </si>
-  <si>
-    <t>150.891</t>
-  </si>
-  <si>
-    <t>148.616</t>
-  </si>
-  <si>
-    <t>207.601</t>
-  </si>
-  <si>
-    <t>239.107</t>
-  </si>
-  <si>
-    <t>113.193</t>
-  </si>
-  <si>
-    <t>163.976</t>
-  </si>
-  <si>
-    <t>19.203</t>
-  </si>
-  <si>
-    <t>12.980</t>
-  </si>
-  <si>
-    <t>14.922</t>
-  </si>
-  <si>
-    <t>12.651</t>
-  </si>
-  <si>
-    <t>29.105</t>
-  </si>
-  <si>
-    <t>33.331</t>
-  </si>
-  <si>
-    <t>10.521</t>
-  </si>
-  <si>
-    <t>16.003</t>
+    <t>166.704</t>
+  </si>
+  <si>
+    <t>150.867</t>
+  </si>
+  <si>
+    <t>147.947</t>
+  </si>
+  <si>
+    <t>239.097</t>
+  </si>
+  <si>
+    <t>19.159</t>
+  </si>
+  <si>
+    <t>13.029</t>
+  </si>
+  <si>
+    <t>14.969</t>
+  </si>
+  <si>
+    <t>12.583</t>
+  </si>
+  <si>
+    <t>33.296</t>
   </si>
   <si>
     <t>-0.587</t>
   </si>
   <si>
-    <t>-0.112</t>
-  </si>
-  <si>
-    <t>0.288</t>
-  </si>
-  <si>
-    <t>-0.282</t>
-  </si>
-  <si>
-    <t>-0.105</t>
-  </si>
-  <si>
-    <t>-0.349</t>
-  </si>
-  <si>
-    <t>-0.078</t>
-  </si>
-  <si>
-    <t>-0.365</t>
-  </si>
-  <si>
-    <t>1.967</t>
-  </si>
-  <si>
-    <t>1.465</t>
-  </si>
-  <si>
-    <t>1.980</t>
-  </si>
-  <si>
-    <t>1.842</t>
-  </si>
-  <si>
-    <t>1.949</t>
-  </si>
-  <si>
-    <t>2.303</t>
-  </si>
-  <si>
-    <t>2.382</t>
-  </si>
-  <si>
-    <t>2.993</t>
-  </si>
-  <si>
-    <t>25.576</t>
-  </si>
-  <si>
-    <t>25.185</t>
-  </si>
-  <si>
-    <t>14.334</t>
-  </si>
-  <si>
-    <t>17.350</t>
-  </si>
-  <si>
-    <t>12.008</t>
-  </si>
-  <si>
-    <t>10.171</t>
-  </si>
-  <si>
-    <t>4.249</t>
-  </si>
-  <si>
-    <t>5.561</t>
+    <t>-0.108</t>
+  </si>
+  <si>
+    <t>0.286</t>
+  </si>
+  <si>
+    <t>-0.278</t>
+  </si>
+  <si>
+    <t>-0.342</t>
+  </si>
+  <si>
+    <t>1.975</t>
+  </si>
+  <si>
+    <t>1.463</t>
+  </si>
+  <si>
+    <t>1.981</t>
+  </si>
+  <si>
+    <t>1.844</t>
+  </si>
+  <si>
+    <t>2.300</t>
+  </si>
+  <si>
+    <t>25.519</t>
+  </si>
+  <si>
+    <t>25.287</t>
+  </si>
+  <si>
+    <t>14.343</t>
+  </si>
+  <si>
+    <t>17.271</t>
+  </si>
+  <si>
+    <t>10.048</t>
   </si>
   <si>
     <t>0.000</t>
@@ -271,16 +190,7 @@
     <t>0.001</t>
   </si>
   <si>
-    <t>0.002</t>
-  </si>
-  <si>
-    <t>0.006</t>
-  </si>
-  <si>
-    <t>0.119</t>
-  </si>
-  <si>
-    <t>0.062</t>
+    <t>0.007</t>
   </si>
 </sst>
 </file>
@@ -669,7 +579,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -715,34 +625,34 @@
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -750,34 +660,34 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -785,34 +695,34 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -820,34 +730,34 @@
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -855,143 +765,38 @@
         <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="K6" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A9">
+  <conditionalFormatting sqref="A1:A6">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="notEqual">
       <formula>0</formula>
     </cfRule>
@@ -1001,12 +806,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:K9">
+  <conditionalFormatting sqref="A1:K6">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:K9">
+  <conditionalFormatting sqref="A6:K6">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
       <formula>0</formula>
     </cfRule>
